--- a/bin/xlsx/物品表.xlsx
+++ b/bin/xlsx/物品表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>STRING</t>
   </si>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,6 +208,22 @@
   <si>
     <t>深山老林一只参</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NULL</t>
@@ -546,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C2A27-4D87-47F0-84A9-9E3F8B1CEB0A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -587,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -604,18 +616,18 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -628,6 +640,12 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -639,6 +657,12 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -647,6 +671,12 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -655,6 +685,12 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -663,10 +699,31 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>31000004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -676,7 +733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -715,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -732,18 +789,18 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -751,16 +808,16 @@
         <v>31000101</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -814,10 +871,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -831,18 +888,18 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -856,7 +913,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -873,7 +930,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -890,7 +947,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>2000</v>
@@ -907,7 +964,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>10000</v>
@@ -918,13 +975,13 @@
         <v>33000201</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -935,13 +992,13 @@
         <v>33000202</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -952,13 +1009,13 @@
         <v>33000203</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>2000</v>
@@ -969,13 +1026,13 @@
         <v>33000204</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
       <c r="E12">
         <v>10000</v>
@@ -991,9 +1048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174782DC-C954-44EC-BF17-073F70AA8F8A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E3"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1031,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1048,18 +1105,18 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1067,10 +1124,16 @@
         <v>34000101</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1125,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1142,18 +1205,18 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1161,13 +1224,13 @@
         <v>35320001</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/bin/xlsx/物品表.xlsx
+++ b/bin/xlsx/物品表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="材料" sheetId="3" r:id="rId4"/>
     <sheet name="功法秘籍" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>STRING</t>
   </si>
@@ -228,6 +228,30 @@
   <si>
     <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄芽丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升修为100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -557,17 +581,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C2A27-4D87-47F0-84A9-9E3F8B1CEB0A}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,24 +690,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>31000001</v>
+        <v>30000003</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>31000002</v>
+        <v>31000001</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -694,10 +721,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>31000003</v>
+        <v>31000002</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -708,15 +735,29 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>31000004</v>
+        <v>31000003</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
       <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>31000004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -728,7 +769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -738,7 +779,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.86328125" customWidth="1"/>
     <col min="4" max="4" width="10.1328125" customWidth="1"/>
     <col min="5" max="5" width="10.46484375" customWidth="1"/>
@@ -827,17 +868,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC285B1-3BB7-404D-A1F0-E6CDF21D264E}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
@@ -1038,6 +1080,23 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>33000301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,19 +1104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174782DC-C954-44EC-BF17-073F70AA8F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="2" max="2" width="10.06640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -1143,7 +1202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE0F44F-E195-4EE5-87FB-447DAD602529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,10 +1212,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="43.86328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
     <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
